--- a/writeup/results/failed clue analysis.xlsx
+++ b/writeup/results/failed clue analysis.xlsx
@@ -2,13 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="most common clue issues" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="clue-solve-split" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="solving-time" sheetId="8" r:id="rId5"/>
+    <sheet name="solve time" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$101</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,32 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
   <si>
     <t>(Clue ("Six menace bewildered former government agent",9),"EXCISEMAN")</t>
   </si>
   <si>
-    <t>Solution not in wordlist</t>
-  </si>
-  <si>
-    <t>Indicator Not Available</t>
-  </si>
-  <si>
     <t>Unparsable Structure</t>
   </si>
   <si>
-    <t>Clue type not covered</t>
-  </si>
-  <si>
-    <t>Knowledge Required</t>
-  </si>
-  <si>
     <t>(Clue ("Criticise a revolutionarys swagger",7),"PANACHE")</t>
   </si>
   <si>
-    <t>Synonym not included</t>
-  </si>
-  <si>
     <t>(Clue ("Funeral car stopped by traffic light Just the opposite  went over",9),"REHEARSED")</t>
   </si>
   <si>
@@ -54,9 +47,6 @@
     <t>(Clue ("Poet reportedly in a thin woollen vest",7),"SPENCER")</t>
   </si>
   <si>
-    <t>No Link between Solution and Definition</t>
-  </si>
-  <si>
     <t>(Clue ("Inquisitive about eg a bouquet",7),"NOSEGAY")</t>
   </si>
   <si>
@@ -331,14 +321,127 @@
   </si>
   <si>
     <t>(Clue ("Obsessive enthusiast on trial with madman",7),"NUTCASE")</t>
+  </si>
+  <si>
+    <t>(Clue ("Hiker is not up to much",10),"PEDESTRIAN")</t>
+  </si>
+  <si>
+    <t>(Clue ("Bright bar after introduction of candles",6),"CLEVER")</t>
+  </si>
+  <si>
+    <t>Clue</t>
+  </si>
+  <si>
+    <t>Clue Number</t>
+  </si>
+  <si>
+    <t>(Clue ("Last in science failing to pass",6),"ELAPSE")</t>
+  </si>
+  <si>
+    <t>Just Definition Issues</t>
+  </si>
+  <si>
+    <t>Just Indicator Issues</t>
+  </si>
+  <si>
+    <t>Expression Indicator Not Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New/unknown clue type </t>
+  </si>
+  <si>
+    <t>No dictionary match between Answer and Definition</t>
+  </si>
+  <si>
+    <t>Knowledge not in dataset</t>
+  </si>
+  <si>
+    <t>Synonym required in clue not in dataset</t>
+  </si>
+  <si>
+    <t>Answer not in wordlist</t>
+  </si>
+  <si>
+    <t>Expression Indicator not found</t>
+  </si>
+  <si>
+    <t>Solveable and verifiable</t>
+  </si>
+  <si>
+    <t>Solvable but no match</t>
+  </si>
+  <si>
+    <t>Easily collectable data</t>
+  </si>
+  <si>
+    <t>More complex data</t>
+  </si>
+  <si>
+    <t>Program modifications needed</t>
+  </si>
+  <si>
+    <t>Not solvable with current approach</t>
+  </si>
+  <si>
+    <t>Easy data</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Issue2</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Solvable but no verification</t>
+  </si>
+  <si>
+    <t>Solvable with easily collectable data</t>
+  </si>
+  <si>
+    <t>Require more complex data</t>
+  </si>
+  <si>
+    <t>Clue Solved in</t>
+  </si>
+  <si>
+    <t>5 seconds</t>
+  </si>
+  <si>
+    <t>10 seconds</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -361,6 +464,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,336 +489,438 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="321">
+  <cellStyleXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="321">
+  <cellStyles count="417">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -869,6 +1081,54 @@
     <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1029,11 +1289,923 @@
     <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="117"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="17"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$14:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No dictionary match between Answer and Definition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expression Indicator not found</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Synonym required in clue not in dataset</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Knowledge not in dataset</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New/unknown clue type </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Unparsable Structure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Answer not in wordlist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2142175736"/>
+        <c:axId val="-2142155208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2142175736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142155208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142155208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prevelance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in unsolvable clues</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00966398781794003"/>
+              <c:y val="0.283030529971678"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142175736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0533304287016742"/>
+          <c:y val="0.029425147397532"/>
+          <c:w val="0.324992409584371"/>
+          <c:h val="0.941149705204936"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solveable and verifiable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solvable but no verification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solvable with easily collectable data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Require more complex data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Program modifications needed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not solvable with current approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2140904888"/>
+        <c:axId val="-2140808792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140904888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140808792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140808792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140904888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.386606256415708"/>
+          <c:y val="0.384093702786763"/>
+          <c:w val="0.228134153873085"/>
+          <c:h val="0.273069828717301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'solve time'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'solve time'!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5 seconds</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 seconds</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30 seconds</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 minute</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 minutes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 minutes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'solve time'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2143503768"/>
+        <c:axId val="2143373256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2143503768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cutoff</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143373256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143373256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage Solved</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143503768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="6720"/>
+    <xdr:ext cx="9185661" cy="5604127"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="6720"/>
+    <xdr:ext cx="9185661" cy="5604127"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9199101" cy="5610847"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1358,11 +2530,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1372,32 +2545,48 @@
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47" customHeight="1">
+    <row r="1" spans="1:12" ht="47" customHeight="1">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2">
         <v>2055</v>
       </c>
@@ -1407,24 +2596,48 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="str">
+        <f>IF(AND(C2=1,SUM(D2:I2)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(AND(E2=1,SUM(C2:I2)&lt;2),1,"")</f>
+        <v/>
+      </c>
+      <c r="L2" t="b">
+        <f>(I2+E2+D2)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3">
         <v>3656</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">IF(AND(C3=1,SUM(D3:I3)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(AND(E3=1,SUM(C3:I3)&lt;2),1,"")</f>
+        <v/>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L66" si="2">(I3+E3+D3)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4">
         <v>3161</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1432,24 +2645,48 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5">
         <v>1985</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6">
         <v>1535</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1460,24 +2697,48 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7">
         <v>2841</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8">
         <v>2626</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1485,13 +2746,25 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9">
         <v>2677</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1502,35 +2775,71 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10">
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11">
         <v>2604</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12">
         <v>389</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1538,13 +2847,25 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1">
       <c r="A13">
         <v>1027</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1552,13 +2873,25 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14">
         <v>2438</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1569,46 +2902,94 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15">
         <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16">
         <v>1184</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1">
       <c r="A17">
         <v>5101</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18">
         <v>2498</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1616,68 +2997,140 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19">
         <v>2035</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20">
         <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21">
         <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22">
         <v>3701</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23">
         <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24">
         <v>1757</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1688,13 +3141,25 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25">
         <v>1908</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1705,46 +3170,94 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26">
         <v>3711</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27">
         <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28">
         <v>3165</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29">
         <v>1834</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1755,13 +3268,25 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30">
         <v>3076</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1769,68 +3294,140 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31">
         <v>3360</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32">
         <v>576</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33">
         <v>1621</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34">
         <v>2265</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35">
         <v>1273</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36">
         <v>2786</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1838,13 +3435,25 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>1498</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1852,35 +3461,71 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38">
         <v>3387</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39">
         <v>1588</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40">
         <v>4947</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1891,24 +3536,48 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41">
         <v>3008</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42">
         <v>5038</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1916,46 +3585,94 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43">
         <v>5066</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44">
         <v>2774</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45">
         <v>4959</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46">
         <v>2583</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1966,13 +3683,25 @@
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47">
         <v>2519</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1980,57 +3709,117 @@
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L47" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48">
         <v>5079</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1">
       <c r="A49">
         <v>3768</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L49" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1">
       <c r="A50">
         <v>4041</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>4067</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L51" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1">
       <c r="A52">
         <v>4692</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2041,35 +3830,71 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="str">
+        <f>IF(AND(C52=1,SUM(D52:I52)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1">
       <c r="A53">
         <v>5198</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1">
       <c r="A54">
         <v>3971</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L54" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1">
       <c r="A55">
         <v>1840</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2077,13 +3902,25 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1">
       <c r="A56">
         <v>966</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2091,24 +3928,48 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L56" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1">
       <c r="A57">
         <v>3305</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1">
       <c r="A58">
         <v>3737</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2119,46 +3980,94 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1">
       <c r="A59">
         <v>3826</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1">
       <c r="A60">
         <v>2435</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1">
       <c r="A61">
         <v>1876</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1">
       <c r="A62">
         <v>3016</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2166,13 +4075,25 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L62" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1">
       <c r="A63">
         <v>4579</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2180,46 +4101,94 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1">
       <c r="A64">
         <v>4384</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L64" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65">
         <v>5089</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66">
         <v>1907</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67">
         <v>3792</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2227,24 +4196,48 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J85" si="3">IF(AND(C67=1,SUM(D67:I67)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K101" si="4">IF(AND(E67=1,SUM(C67:I67)&lt;2),1,"")</f>
+        <v/>
+      </c>
+      <c r="L67" t="b">
+        <f t="shared" ref="L67:L101" si="5">(I67+E67+D67)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68">
         <v>309</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L68" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69">
         <v>907</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2255,13 +4248,25 @@
       <c r="I69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L69" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70">
         <v>1604</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2272,24 +4277,48 @@
       <c r="H70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L70" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71">
         <v>3819</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L71" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1">
       <c r="A72">
         <v>3108</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2297,35 +4326,71 @@
       <c r="I72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L72" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>3329</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L73" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1">
       <c r="A74">
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L74" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1">
       <c r="A75">
         <v>4497</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2336,24 +4401,48 @@
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L75" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1">
       <c r="A76">
         <v>1683</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77">
         <v>1201</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2364,13 +4453,25 @@
       <c r="H77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L77" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78">
         <v>3102</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2381,13 +4482,25 @@
       <c r="H78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L78" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79">
         <v>1346</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2395,13 +4508,25 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L79" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1">
       <c r="A80">
         <v>4382</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2409,13 +4534,25 @@
       <c r="H80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L80" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1">
       <c r="A81">
         <v>4535</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2426,13 +4563,25 @@
       <c r="I81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L81" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1">
       <c r="A82">
         <v>1326</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2440,13 +4589,25 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L82" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1">
       <c r="A83">
         <v>1613</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2454,24 +4615,48 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L83" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84">
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L84" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1">
       <c r="A85">
         <v>1555</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2479,13 +4664,25 @@
       <c r="I85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L85" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1">
       <c r="A86">
         <v>3932</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2493,68 +4690,140 @@
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="str">
+        <f>IF(AND(C86=1,SUM(D86:I86)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L86" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1">
       <c r="A87">
         <v>911</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87">
+        <f t="shared" ref="J87:J101" si="6">IF(AND(C87=1,SUM(D87:I87)&lt;1),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L87" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>670</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L88" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1">
       <c r="A89">
         <v>5250</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L89" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1">
       <c r="A90">
         <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L90" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1">
       <c r="A91">
         <v>4239</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L91" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1">
       <c r="A92">
         <v>4586</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2562,13 +4831,25 @@
       <c r="I92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L92" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1">
       <c r="A93">
         <v>1409</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2576,24 +4857,48 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L93" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" hidden="1">
       <c r="A94">
         <v>2570</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L94" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1">
       <c r="A95">
         <v>5134</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2604,13 +4909,25 @@
       <c r="H95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L95" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1">
       <c r="A96">
         <v>1404</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2618,110 +4935,148 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L96" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1">
       <c r="A97">
         <v>3739</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L97" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1">
       <c r="A98">
         <v>4228</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L98" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1">
       <c r="A99">
         <v>2730</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L99" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100">
         <v>2321</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L100" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1">
       <c r="A101">
-        <v>5166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
         <v>2284</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>5164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
-        <v>3878</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>5043</v>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L101" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L101">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2730,4 +5085,375 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="42.1640625" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <f>COUNT(Sheet1!C2:C101)</f>
+        <v>49</v>
+      </c>
+      <c r="B1">
+        <f>COUNT(Sheet1!D2:D101)</f>
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <f>COUNT(Sheet1!E2:E101)</f>
+        <v>44</v>
+      </c>
+      <c r="D1">
+        <f>COUNT(Sheet1!F2:F101)</f>
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <f>COUNT(Sheet1!G2:G101)</f>
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <f>COUNT(Sheet1!H2:H101)</f>
+        <v>21</v>
+      </c>
+      <c r="G1">
+        <f>COUNT(Sheet1!I2:I101)</f>
+        <v>26</v>
+      </c>
+      <c r="H1">
+        <f>COUNT(Sheet1!J2:J101)</f>
+        <v>15</v>
+      </c>
+      <c r="I1">
+        <f>COUNT(Sheet1!K2:K101)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3">
+        <f>A1/100</f>
+        <v>0.49</v>
+      </c>
+      <c r="B2" s="3">
+        <f>B1/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="C2" s="3">
+        <f>C1/100</f>
+        <v>0.44</v>
+      </c>
+      <c r="D2" s="3">
+        <f>D1/100</f>
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="3">
+        <f>E1/100</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <f>F1/100</f>
+        <v>0.21</v>
+      </c>
+      <c r="G2" s="3">
+        <f>G1/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="3">
+        <f>K8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="J9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M9" s="3">
+        <f>L9*(1-M$8)</f>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M13" si="0">L10*(1-M$8)</f>
+        <v>0.41649999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16">
+      <c r="K18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16">
+      <c r="J19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.1275</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.1615</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.1105</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16">
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.1275</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.1615</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.1105</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K9:K13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/writeup/results/failed clue analysis.xlsx
+++ b/writeup/results/failed clue analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="most common clue issues" sheetId="5" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>Solvable but no verification</t>
   </si>
   <si>
-    <t>Solvable with easily collectable data</t>
-  </si>
-  <si>
     <t>Require more complex data</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Could be solved with easily collectable data</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="417">
+  <cellStyleXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -920,7 +938,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="417">
+  <cellStyles count="435">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1129,6 +1147,15 @@
     <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1337,6 +1364,15 @@
     <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1676,7 +1712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Solvable with easily collectable data</c:v>
+                  <c:v>Could be solved with easily collectable data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2120,9 +2156,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="189" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -2185,7 +2222,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9199101" cy="5610847"/>
+    <xdr:ext cx="9185661" cy="5610847"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2534,8 +2571,8 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2632,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3161</v>
       </c>
@@ -2658,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1985</v>
       </c>
@@ -2720,9 +2757,12 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -2730,7 +2770,7 @@
       </c>
       <c r="L7" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1">
@@ -2759,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2677</v>
       </c>
@@ -2834,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>389</v>
       </c>
@@ -2886,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2438</v>
       </c>
@@ -2984,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>2498</v>
       </c>
@@ -3102,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>477</v>
       </c>
@@ -3125,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1757</v>
       </c>
@@ -3154,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1908</v>
       </c>
@@ -3229,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>3165</v>
       </c>
@@ -3252,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1834</v>
       </c>
@@ -3353,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1621</v>
       </c>
@@ -3422,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>2786</v>
       </c>
@@ -3448,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37">
         <v>1498</v>
       </c>
@@ -3474,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>3387</v>
       </c>
@@ -3520,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>4947</v>
       </c>
@@ -3549,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>3008</v>
       </c>
@@ -3598,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>5066</v>
       </c>
@@ -3644,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>4959</v>
       </c>
@@ -3667,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>2583</v>
       </c>
@@ -3768,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>4041</v>
       </c>
@@ -3791,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51">
         <v>4067</v>
       </c>
@@ -3814,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>4692</v>
       </c>
@@ -3915,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>966</v>
       </c>
@@ -3964,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>3737</v>
       </c>
@@ -3993,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>3826</v>
       </c>
@@ -4016,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>2435</v>
       </c>
@@ -4088,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>4579</v>
       </c>
@@ -4160,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>1907</v>
       </c>
@@ -4183,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>3792</v>
       </c>
@@ -4339,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73">
         <v>3329</v>
       </c>
@@ -4385,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>4497</v>
       </c>
@@ -4414,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>1683</v>
       </c>
@@ -4437,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>1201</v>
       </c>
@@ -4466,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>3102</v>
       </c>
@@ -4495,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>1346</v>
       </c>
@@ -4547,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>4535</v>
       </c>
@@ -4576,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>1326</v>
       </c>
@@ -4602,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>1613</v>
       </c>
@@ -4628,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>51</v>
       </c>
@@ -4651,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>1555</v>
       </c>
@@ -4726,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" hidden="1">
       <c r="A88">
         <v>670</v>
       </c>
@@ -4818,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>4586</v>
       </c>
@@ -4844,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>1409</v>
       </c>
@@ -4893,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>5134</v>
       </c>
@@ -4922,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>1404</v>
       </c>
@@ -5020,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>2321</v>
       </c>
@@ -5046,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>2284</v>
       </c>
@@ -5071,7 +5111,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L101">
-    <filterColumn colId="5">
+    <filterColumn colId="4">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -5091,7 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -5128,11 +5168,11 @@
       </c>
       <c r="G1">
         <f>COUNT(Sheet1!I2:I101)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1">
         <f>COUNT(Sheet1!J2:J101)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1">
         <f>COUNT(Sheet1!K2:K101)</f>
@@ -5166,7 +5206,7 @@
       </c>
       <c r="G2" s="3">
         <f>G1/100</f>
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5206,7 +5246,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="J10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3">
@@ -5219,7 +5259,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="J11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3">
@@ -5394,7 +5434,7 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>122</v>
@@ -5402,7 +5442,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3">
         <v>0.13</v>
@@ -5410,7 +5450,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3">
         <v>0.15</v>
@@ -5418,7 +5458,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3">
         <v>0.21</v>
@@ -5426,7 +5466,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3">
         <v>0.23</v>
@@ -5434,7 +5474,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3">
         <v>0.27</v>
@@ -5442,7 +5482,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3">
         <v>0.28000000000000003</v>

--- a/writeup/results/failed clue analysis.xlsx
+++ b/writeup/results/failed clue analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="most common clue issues" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="solve time" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$101</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,317 +27,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
-  <si>
-    <t>(Clue ("Six menace bewildered former government agent",9),"EXCISEMAN")</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
   <si>
     <t>Unparsable Structure</t>
   </si>
   <si>
-    <t>(Clue ("Criticise a revolutionarys swagger",7),"PANACHE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Funeral car stopped by traffic light Just the opposite  went over",9),"REHEARSED")</t>
-  </si>
-  <si>
-    <t>(Clue ("Content of the picture Ben Hur say",4),"EPIC")</t>
-  </si>
-  <si>
-    <t>(Clue ("Poet reportedly in a thin woollen vest",7),"SPENCER")</t>
-  </si>
-  <si>
-    <t>(Clue ("Inquisitive about eg a bouquet",7),"NOSEGAY")</t>
-  </si>
-  <si>
-    <t>(Clue ("Going round in the morning determined to catch one",7),"AMBIENT")</t>
-  </si>
-  <si>
-    <t>(Clue ("Prevailing trend in Sri Lanka one connected with tea",7),"CLIMATE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Group of singers not one with bit of talent",5),"NONET")</t>
-  </si>
-  <si>
-    <t>(Clue ("Satellite phone and its unusual ring",8),"CALLISTO")</t>
-  </si>
-  <si>
-    <t>(Clue ("Sit still initially enthralled by US writer",4),"POSE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Went to the polls opposing old Edward",5),"VOTED")</t>
-  </si>
-  <si>
-    <t>(Clue ("Greek writer a model brought over",5),"AESOP")</t>
-  </si>
-  <si>
-    <t>(Clue ("Old man tucking into whats left of meal",6),"REPAST")</t>
-  </si>
-  <si>
-    <t>(Clue ("Savage one in racing stable",7),"BESTIAL")</t>
-  </si>
-  <si>
-    <t>(Clue ("In nightclub hold forth about duo initially offkey",10),"DISCORDANT")</t>
-  </si>
-  <si>
-    <t>(Clue ("One female in car shows flair",4),"GIFT")</t>
-  </si>
-  <si>
-    <t>(Clue ("Rather unfriendly one in high school",7),"COOLISH")</t>
-  </si>
-  <si>
-    <t>(Clue ("Begin going round superior royal house",6),"STUART")</t>
-  </si>
-  <si>
-    <t>(Clue ("Section of church supporting king a villain",5),"KNAVE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Came into the diner in disguise about one",9),"INHERITED")</t>
-  </si>
-  <si>
-    <t>(Clue ("Flummox with puns on live broadcast",7),"NONPLUS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Having knowledge of a conflict ending in peace",5),"AWARE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Monster captured by armed US agent",6),"MEDUSA")</t>
-  </si>
-  <si>
-    <t>(Clue ("Governor can holding girl",9),"CASTELLAN")</t>
-  </si>
-  <si>
-    <t>(Clue ("Bird left Noahs ship",4),"LARK")</t>
-  </si>
-  <si>
-    <t>(Clue ("The best amongst the literati",5),"ELITE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Theres fury when old car fails to start",5),"ANGER")</t>
-  </si>
-  <si>
-    <t>(Clue ("Group member departs with stranger",7),"DRUMMER")</t>
-  </si>
-  <si>
-    <t>(Clue ("Sauce  favourite covering piece of savoury duck",5),"PESTO")</t>
-  </si>
-  <si>
-    <t>(Clue ("A distress call about top insulating material",8),"ASBESTOS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Very  good air conditioning at top of escalator",3),"ACE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Oppose the others crossing island",6),"RESIST")</t>
-  </si>
-  <si>
-    <t>(Clue ("Brief letters attack revolutionary",5),"NOTES")</t>
-  </si>
-  <si>
-    <t>(Clue ("Some weather  Malvern is hot",7),"THERMAL")</t>
-  </si>
-  <si>
-    <t>(Clue ("Washington for example",9),"STATESMAN")</t>
-  </si>
-  <si>
-    <t>(Clue ("Managed on extremely grotesque cooking stove",5),"RANGE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Strongly recommend some beefburgers",4),"URGE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Names I confused after onset of awful medical condition",7),"AMNESIA")</t>
-  </si>
-  <si>
-    <t>(Clue ("Son is cross failing to identify cutters",8),"SCISSORS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Island still English",4),"BUTE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Command from frontier bishop ignored",5),"ORDER")</t>
-  </si>
-  <si>
-    <t>(Clue ("Description of a nobleman we hear",7),"ACCOUNT")</t>
-  </si>
-  <si>
-    <t>(Clue ("Wounded girls with swords",9),"CUTLASSES")</t>
-  </si>
-  <si>
-    <t>(Clue ("Devoted  many but not quite all in gods embrace",7),"ZEALOUS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Famous pianist  shes playing",4),"HESS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Fruit a necessity over in South Africa",7),"SATSUMA")</t>
-  </si>
-  <si>
-    <t>(Clue ("Emphasised editor is under pressure",8),"STRESSED")</t>
-  </si>
-  <si>
-    <t>(Clue ("Complain about onset of pneumonia or flu",6),"GRIPPE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Courtier came and sold bubbly",8),"DAMOCLES")</t>
-  </si>
-  <si>
-    <t>(Clue ("Retired professors in Cambridge ultimately deserve one",7),"EMERITI")</t>
-  </si>
-  <si>
-    <t>(Clue ("A new member returned with a backer",5),"ANGEL")</t>
-  </si>
-  <si>
-    <t>(Clue ("English poets reported row",5),"NOYES")</t>
-  </si>
-  <si>
-    <t>(Clue ("Some women at a laundry in a former SA province",5),"NATAL")</t>
-  </si>
-  <si>
-    <t>(Clue ("Something of little value found in sack by a bank clerk Not entirely",9),"BAGATELLE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Maneating monster consequently comes back",4),"OGRE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Girl feeding pygmy rattlesnake",4),"MYRA")</t>
-  </si>
-  <si>
-    <t>(Clue ("Posy could make beak happy",7),"NOSEGAY")</t>
-  </si>
-  <si>
-    <t>(Clue ("Got upset touring the awful slum area",6),"GHETTO")</t>
-  </si>
-  <si>
-    <t>(Clue ("Lift beam across ring",7),"PURLOIN")</t>
-  </si>
-  <si>
-    <t>(Clue ("Lick end of lollipop  superb",4),"PACE")</t>
-  </si>
-  <si>
-    <t>(Clue ("RC priests inside exhibiting object of historic interest",5),"RELIC")</t>
-  </si>
-  <si>
-    <t>(Clue ("Stream of abuse at bride I suspect",8),"DIATRIBE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Film noir too grim  American",9),"NOTORIOUS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Understood one must have allowed member inside",8),"IMPLICIT")</t>
-  </si>
-  <si>
-    <t>(Clue ("Goddess attending feast Artemis",7),"ASTARTE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Remained sober by the sound of it",6),"STAYED")</t>
-  </si>
-  <si>
-    <t>(Clue ("Living on the water A short question getting a nervous response",7),"AQUATIC")</t>
-  </si>
-  <si>
-    <t>(Clue ("What sounds like a standard piece of artillery",6),"CANNON")</t>
-  </si>
-  <si>
-    <t>(Clue ("Large farms controlled game mostly",7),"RANCHES")</t>
-  </si>
-  <si>
-    <t>(Clue ("Articles helpful hint concerning an hors doeuvre",9),"ANTIPASTO")</t>
-  </si>
-  <si>
-    <t>(Clue ("Bloodhound in film",6),"SLEUTH")</t>
-  </si>
-  <si>
-    <t>(Clue ("Exaggerate concerning party",6),"OVERDO")</t>
-  </si>
-  <si>
-    <t>(Clue ("More than one spoke with one on wireless endlessly",5),"RADII")</t>
-  </si>
-  <si>
-    <t>(Clue ("See head of glamour girl in mirror",5),"GLASS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Noahs son rose heading off in a muddle",9),"SHEMOZZLE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Capital husband invested in food shop",5),"DELHI")</t>
-  </si>
-  <si>
-    <t>(Clue ("Series of letters from one Roman emperor",4),"NERO")</t>
-  </si>
-  <si>
-    <t>(Clue ("Evergreen song about goldtopped automobile",9),"ARAUCARIA")</t>
-  </si>
-  <si>
-    <t>(Clue ("One writer taken aback points to antelope",5),"ORIBI")</t>
-  </si>
-  <si>
-    <t>(Clue ("Quantity of meat refused not kosher",4),"TREF")</t>
-  </si>
-  <si>
-    <t>(Clue ("The Scourge of God held back by Vandal It tallies",6),"ATTILA")</t>
-  </si>
-  <si>
-    <t>(Clue ("Wine jar I smashed containing drop of Orvieto",5),"RIOJA")</t>
-  </si>
-  <si>
-    <t>(Clue ("See chess piece  elaborately decorated almost completely",9),"BISHOPRIC")</t>
-  </si>
-  <si>
-    <t>(Clue ("Psychiatrists article on a composer we hear",7),"ANALYST")</t>
-  </si>
-  <si>
-    <t>(Clue ("Fresh in a star singer",7),"SINATRA")</t>
-  </si>
-  <si>
-    <t>(Clue ("In the morning I work with a friend",5),"AMIGO")</t>
-  </si>
-  <si>
-    <t>(Clue ("Mrs Mopp is old ladymaking personal appeal",8),"CHARISMA")</t>
-  </si>
-  <si>
-    <t>(Clue ("Ridicule South African bore",6),"SATIRE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Horse one attached to stable at first",8),"STALLION")</t>
-  </si>
-  <si>
-    <t>(Clue ("Bombardier holding scourge finally gets physical",9),"CORPOREAL")</t>
-  </si>
-  <si>
-    <t>(Clue ("Not tarnished Could become dull in use",9),"UNSULLIED")</t>
-  </si>
-  <si>
-    <t>(Clue ("First one to leave ship say",5),"UTTER")</t>
-  </si>
-  <si>
-    <t>(Clue ("Girl crossing river to find a lemur",5),"LORIS")</t>
-  </si>
-  <si>
-    <t>(Clue ("Sway to and fro being sick during leave",9),"VACILLATE")</t>
-  </si>
-  <si>
-    <t>(Clue ("First to ring city bank",4),"RELY")</t>
-  </si>
-  <si>
-    <t>(Clue ("Obsessive enthusiast on trial with madman",7),"NUTCASE")</t>
-  </si>
-  <si>
-    <t>(Clue ("Hiker is not up to much",10),"PEDESTRIAN")</t>
-  </si>
-  <si>
-    <t>(Clue ("Bright bar after introduction of candles",6),"CLEVER")</t>
-  </si>
-  <si>
-    <t>Clue</t>
+    <t>Going round in the morning determined to catch one</t>
+  </si>
+  <si>
+    <t>Bloodhound in film</t>
   </si>
   <si>
     <t>Clue Number</t>
   </si>
   <si>
-    <t>(Clue ("Last in science failing to pass",6),"ELAPSE")</t>
-  </si>
-  <si>
     <t>Just Definition Issues</t>
   </si>
   <si>
@@ -426,6 +129,597 @@
   </si>
   <si>
     <t>Could be solved with easily collectable data</t>
+  </si>
+  <si>
+    <t>Six menace bewildered former government agent</t>
+  </si>
+  <si>
+    <t>EXCISEMAN</t>
+  </si>
+  <si>
+    <t>Criticise a revolutionarys swagger</t>
+  </si>
+  <si>
+    <t>PANACHE</t>
+  </si>
+  <si>
+    <t>Funeral car stopped by traffic light Just the opposite  went over</t>
+  </si>
+  <si>
+    <t>REHEARSED</t>
+  </si>
+  <si>
+    <t>Content of the picture Ben Hur say</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>Poet reportedly in a thin woollen vest</t>
+  </si>
+  <si>
+    <t>SPENCER</t>
+  </si>
+  <si>
+    <t>Inquisitive about eg a bouquet</t>
+  </si>
+  <si>
+    <t>NOSEGAY</t>
+  </si>
+  <si>
+    <t>AMBIENT</t>
+  </si>
+  <si>
+    <t>Prevailing trend in Sri Lanka one connected with tea</t>
+  </si>
+  <si>
+    <t>CLIMATE</t>
+  </si>
+  <si>
+    <t>Group of singers not one with bit of talent</t>
+  </si>
+  <si>
+    <t>NONET</t>
+  </si>
+  <si>
+    <t>Satellite phone and its unusual ring</t>
+  </si>
+  <si>
+    <t>CALLISTO</t>
+  </si>
+  <si>
+    <t>Sit still initially enthralled by US writer</t>
+  </si>
+  <si>
+    <t>POSE</t>
+  </si>
+  <si>
+    <t>Went to the polls opposing old Edward</t>
+  </si>
+  <si>
+    <t>VOTED</t>
+  </si>
+  <si>
+    <t>Greek writer a model brought over</t>
+  </si>
+  <si>
+    <t>AESOP</t>
+  </si>
+  <si>
+    <t>Old man tucking into whats left of meal</t>
+  </si>
+  <si>
+    <t>REPAST</t>
+  </si>
+  <si>
+    <t>Savage one in racing stable</t>
+  </si>
+  <si>
+    <t>BESTIAL</t>
+  </si>
+  <si>
+    <t>In nightclub hold forth about duo initially offkey</t>
+  </si>
+  <si>
+    <t>DISCORDANT</t>
+  </si>
+  <si>
+    <t>One female in car shows flair</t>
+  </si>
+  <si>
+    <t>GIFT</t>
+  </si>
+  <si>
+    <t>Rather unfriendly one in high school</t>
+  </si>
+  <si>
+    <t>COOLISH</t>
+  </si>
+  <si>
+    <t>Begin going round superior royal house</t>
+  </si>
+  <si>
+    <t>STUART</t>
+  </si>
+  <si>
+    <t>Section of church supporting king a villain</t>
+  </si>
+  <si>
+    <t>KNAVE</t>
+  </si>
+  <si>
+    <t>Came into the diner in disguise about one</t>
+  </si>
+  <si>
+    <t>INHERITED</t>
+  </si>
+  <si>
+    <t>Flummox with puns on live broadcast</t>
+  </si>
+  <si>
+    <t>NONPLUS</t>
+  </si>
+  <si>
+    <t>Having knowledge of a conflict ending in peace</t>
+  </si>
+  <si>
+    <t>AWARE</t>
+  </si>
+  <si>
+    <t>Monster captured by armed US agent</t>
+  </si>
+  <si>
+    <t>MEDUSA</t>
+  </si>
+  <si>
+    <t>Governor can holding girl</t>
+  </si>
+  <si>
+    <t>CASTELLAN</t>
+  </si>
+  <si>
+    <t>Bird left Noahs ship</t>
+  </si>
+  <si>
+    <t>LARK</t>
+  </si>
+  <si>
+    <t>The best amongst the literati</t>
+  </si>
+  <si>
+    <t>ELITE</t>
+  </si>
+  <si>
+    <t>Theres fury when old car fails to start</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>Group member departs with stranger</t>
+  </si>
+  <si>
+    <t>DRUMMER</t>
+  </si>
+  <si>
+    <t>Sauce  favourite covering piece of savoury duck</t>
+  </si>
+  <si>
+    <t>PESTO</t>
+  </si>
+  <si>
+    <t>A distress call about top insulating material</t>
+  </si>
+  <si>
+    <t>ASBESTOS</t>
+  </si>
+  <si>
+    <t>Very  good air conditioning at top of escalator</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>Oppose the others crossing island</t>
+  </si>
+  <si>
+    <t>RESIST</t>
+  </si>
+  <si>
+    <t>Brief letters attack revolutionary</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Some weather  Malvern is hot</t>
+  </si>
+  <si>
+    <t>THERMAL</t>
+  </si>
+  <si>
+    <t>Washington for example</t>
+  </si>
+  <si>
+    <t>STATESMAN</t>
+  </si>
+  <si>
+    <t>Managed on extremely grotesque cooking stove</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>Strongly recommend some beefburgers</t>
+  </si>
+  <si>
+    <t>URGE</t>
+  </si>
+  <si>
+    <t>Names I confused after onset of awful medical condition</t>
+  </si>
+  <si>
+    <t>AMNESIA</t>
+  </si>
+  <si>
+    <t>Son is cross failing to identify cutters</t>
+  </si>
+  <si>
+    <t>SCISSORS</t>
+  </si>
+  <si>
+    <t>Island still English</t>
+  </si>
+  <si>
+    <t>BUTE</t>
+  </si>
+  <si>
+    <t>Command from frontier bishop ignored</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Description of a nobleman we hear</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>Wounded girls with swords</t>
+  </si>
+  <si>
+    <t>CUTLASSES</t>
+  </si>
+  <si>
+    <t>Devoted  many but not quite all in gods embrace</t>
+  </si>
+  <si>
+    <t>ZEALOUS</t>
+  </si>
+  <si>
+    <t>Famous pianist  shes playing</t>
+  </si>
+  <si>
+    <t>HESS</t>
+  </si>
+  <si>
+    <t>Fruit a necessity over in South Africa</t>
+  </si>
+  <si>
+    <t>SATSUMA</t>
+  </si>
+  <si>
+    <t>Emphasised editor is under pressure</t>
+  </si>
+  <si>
+    <t>STRESSED</t>
+  </si>
+  <si>
+    <t>Complain about onset of pneumonia or flu</t>
+  </si>
+  <si>
+    <t>GRIPPE</t>
+  </si>
+  <si>
+    <t>Courtier came and sold bubbly</t>
+  </si>
+  <si>
+    <t>DAMOCLES</t>
+  </si>
+  <si>
+    <t>Retired professors in Cambridge ultimately deserve one</t>
+  </si>
+  <si>
+    <t>EMERITI</t>
+  </si>
+  <si>
+    <t>A new member returned with a backer</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>English poets reported row</t>
+  </si>
+  <si>
+    <t>NOYES</t>
+  </si>
+  <si>
+    <t>Some women at a laundry in a former SA province</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>Something of little value found in sack by a bank clerk Not entirely</t>
+  </si>
+  <si>
+    <t>BAGATELLE</t>
+  </si>
+  <si>
+    <t>Maneating monster consequently comes back</t>
+  </si>
+  <si>
+    <t>OGRE</t>
+  </si>
+  <si>
+    <t>Girl feeding pygmy rattlesnake</t>
+  </si>
+  <si>
+    <t>MYRA</t>
+  </si>
+  <si>
+    <t>Posy could make beak happy</t>
+  </si>
+  <si>
+    <t>Got upset touring the awful slum area</t>
+  </si>
+  <si>
+    <t>GHETTO</t>
+  </si>
+  <si>
+    <t>Lift beam across ring</t>
+  </si>
+  <si>
+    <t>PURLOIN</t>
+  </si>
+  <si>
+    <t>Lick end of lollipop  superb</t>
+  </si>
+  <si>
+    <t>PACE</t>
+  </si>
+  <si>
+    <t>RC priests inside exhibiting object of historic interest</t>
+  </si>
+  <si>
+    <t>RELIC</t>
+  </si>
+  <si>
+    <t>Stream of abuse at bride I suspect</t>
+  </si>
+  <si>
+    <t>DIATRIBE</t>
+  </si>
+  <si>
+    <t>Film noir too grim  American</t>
+  </si>
+  <si>
+    <t>NOTORIOUS</t>
+  </si>
+  <si>
+    <t>Understood one must have allowed member inside</t>
+  </si>
+  <si>
+    <t>IMPLICIT</t>
+  </si>
+  <si>
+    <t>Goddess attending feast Artemis</t>
+  </si>
+  <si>
+    <t>ASTARTE</t>
+  </si>
+  <si>
+    <t>Remained sober by the sound of it</t>
+  </si>
+  <si>
+    <t>STAYED</t>
+  </si>
+  <si>
+    <t>Living on the water A short question getting a nervous response</t>
+  </si>
+  <si>
+    <t>AQUATIC</t>
+  </si>
+  <si>
+    <t>What sounds like a standard piece of artillery</t>
+  </si>
+  <si>
+    <t>CANNON</t>
+  </si>
+  <si>
+    <t>Large farms controlled game mostly</t>
+  </si>
+  <si>
+    <t>RANCHES</t>
+  </si>
+  <si>
+    <t>Articles helpful hint concerning an hors doeuvre</t>
+  </si>
+  <si>
+    <t>ANTIPASTO</t>
+  </si>
+  <si>
+    <t>SLEUTH</t>
+  </si>
+  <si>
+    <t>Exaggerate concerning party</t>
+  </si>
+  <si>
+    <t>OVERDO</t>
+  </si>
+  <si>
+    <t>More than one spoke with one on wireless endlessly</t>
+  </si>
+  <si>
+    <t>RADII</t>
+  </si>
+  <si>
+    <t>See head of glamour girl in mirror</t>
+  </si>
+  <si>
+    <t>GLASS</t>
+  </si>
+  <si>
+    <t>Noahs son rose heading off in a muddle</t>
+  </si>
+  <si>
+    <t>SHEMOZZLE</t>
+  </si>
+  <si>
+    <t>Capital husband invested in food shop</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>Series of letters from one Roman emperor</t>
+  </si>
+  <si>
+    <t>NERO</t>
+  </si>
+  <si>
+    <t>Evergreen song about goldtopped automobile</t>
+  </si>
+  <si>
+    <t>ARAUCARIA</t>
+  </si>
+  <si>
+    <t>One writer taken aback points to antelope</t>
+  </si>
+  <si>
+    <t>ORIBI</t>
+  </si>
+  <si>
+    <t>Quantity of meat refused not kosher</t>
+  </si>
+  <si>
+    <t>TREF</t>
+  </si>
+  <si>
+    <t>The Scourge of God held back by Vandal It tallies</t>
+  </si>
+  <si>
+    <t>ATTILA</t>
+  </si>
+  <si>
+    <t>Wine jar I smashed containing drop of Orvieto</t>
+  </si>
+  <si>
+    <t>RIOJA</t>
+  </si>
+  <si>
+    <t>See chess piece  elaborately decorated almost completely</t>
+  </si>
+  <si>
+    <t>BISHOPRIC</t>
+  </si>
+  <si>
+    <t>Psychiatrists article on a composer we hear</t>
+  </si>
+  <si>
+    <t>ANALYST</t>
+  </si>
+  <si>
+    <t>Fresh in a star singer</t>
+  </si>
+  <si>
+    <t>SINATRA</t>
+  </si>
+  <si>
+    <t>In the morning I work with a friend</t>
+  </si>
+  <si>
+    <t>AMIGO</t>
+  </si>
+  <si>
+    <t>Mrs Mopp is old ladymaking personal appeal</t>
+  </si>
+  <si>
+    <t>CHARISMA</t>
+  </si>
+  <si>
+    <t>Ridicule South African bore</t>
+  </si>
+  <si>
+    <t>SATIRE</t>
+  </si>
+  <si>
+    <t>Horse one attached to stable at first</t>
+  </si>
+  <si>
+    <t>STALLION</t>
+  </si>
+  <si>
+    <t>Bombardier holding scourge finally gets physical</t>
+  </si>
+  <si>
+    <t>CORPOREAL</t>
+  </si>
+  <si>
+    <t>Not tarnished Could become dull in use</t>
+  </si>
+  <si>
+    <t>UNSULLIED</t>
+  </si>
+  <si>
+    <t>First one to leave ship say</t>
+  </si>
+  <si>
+    <t>UTTER</t>
+  </si>
+  <si>
+    <t>Girl crossing river to find a lemur</t>
+  </si>
+  <si>
+    <t>LORIS</t>
+  </si>
+  <si>
+    <t>Sway to and fro being sick during leave</t>
+  </si>
+  <si>
+    <t>VACILLATE</t>
+  </si>
+  <si>
+    <t>First to ring city bank</t>
+  </si>
+  <si>
+    <t>RELY</t>
+  </si>
+  <si>
+    <t>Obsessive enthusiast on trial with madman</t>
+  </si>
+  <si>
+    <t>NUTCASE</t>
+  </si>
+  <si>
+    <t>Hiker is not up to much</t>
+  </si>
+  <si>
+    <t>PEDESTRIAN</t>
+  </si>
+  <si>
+    <t>Bright bar after introduction of candles</t>
+  </si>
+  <si>
+    <t>CLEVER</t>
+  </si>
+  <si>
+    <t>Last in science failing to pass</t>
+  </si>
+  <si>
+    <t>ELAPSE</t>
   </si>
 </sst>
 </file>
@@ -489,8 +783,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -938,7 +1268,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="471">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1156,6 +1486,24 @@
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1373,6 +1721,24 @@
     <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1914,7 +2280,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.386606256415708"/>
           <c:y val="0.384093702786763"/>
-          <c:w val="0.228134153873085"/>
+          <c:w val="0.270151924831539"/>
           <c:h val="0.273069828717301"/>
         </c:manualLayout>
       </c:layout>
@@ -2144,7 +2510,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2567,1302 +2933,1448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="65.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47" customHeight="1">
+    <row r="1" spans="1:13" ht="47" customHeight="1">
       <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2055</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(AND(C2=1,SUM(D2:I2)&lt;1),1,"")</f>
-        <v/>
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(AND(E2=1,SUM(C2:I2)&lt;2),1,"")</f>
-        <v/>
-      </c>
-      <c r="L2" t="b">
-        <f>(I2+E2+D2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1">
+        <f>IF(AND(D2=1,SUM(E2:J2)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(AND(F2=1,SUM(D2:J2)&lt;2),1,"")</f>
+        <v/>
+      </c>
+      <c r="M2" t="b">
+        <f>(J2+F2+E2)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>3656</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">IF(AND(C3=1,SUM(D3:I3)&lt;1),1,"")</f>
-        <v/>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="1">IF(AND(E3=1,SUM(C3:I3)&lt;2),1,"")</f>
-        <v/>
-      </c>
-      <c r="L3" t="b">
-        <f t="shared" ref="L3:L66" si="2">(I3+E3+D3)&gt;0</f>
+        <f t="shared" ref="K3:K66" si="0">IF(AND(D3=1,SUM(E3:J3)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="1">IF(AND(F3=1,SUM(D3:J3)&lt;2),1,"")</f>
+        <v/>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M66" si="2">(J3+F3+E3)&gt;0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3161</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L4" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1985</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1535</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L6" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2841</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2626</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2677</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L9" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L10" t="b">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M10" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2604</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L11" t="b">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>389</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1027</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L13" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2438</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L14" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1184</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L16" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>5101</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L17" t="b">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M17" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2498</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L18" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>2035</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L19" t="b">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M19" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L20" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L21" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M21" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>3701</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L22" t="b">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1757</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L24" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1908</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>3711</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L26" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M26" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L27" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M27" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>3165</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L28" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1834</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L29" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>3076</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L30" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>3360</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L31" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>576</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L32" t="b">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M32" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1621</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L33" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>2265</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L34" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1273</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L35" t="b">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M35" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>2786</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L36" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1498</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L37" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M37" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>3387</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L38" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1588</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L39" t="b">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M39" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>4947</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L40" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>3008</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L41" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>5038</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L42" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M42" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>5066</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L43" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2774</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L44" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M44" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>4959</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L45" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>2583</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L46" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>2519</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L47" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M47" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>5079</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L48" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>3768</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L49" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M49" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>4041</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L50" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>4067</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L51" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M51" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>4692</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3870,149 +4382,167 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="J52" t="str">
-        <f>IF(AND(C52=1,SUM(D52:I52)&lt;1),1,"")</f>
-        <v/>
+      <c r="F52">
+        <v>1</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L52" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1">
+        <f>IF(AND(D52=1,SUM(E52:J52)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>5198</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L53" t="b">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M53" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>3971</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L54" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M54" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>1840</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L55" t="b">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M55" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>966</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L56" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M56" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>3305</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L57" t="b">
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M57" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>3737</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4020,1103 +4550,1229 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F58">
+        <v>1</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L58" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>3826</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L59" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>147</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>2435</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L60" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>1876</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L61" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>3016</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L62" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M62" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>4579</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>154</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L63" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>4384</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L64" t="b">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M64" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>5089</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L65" t="b">
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M65" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>1907</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L66" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>3792</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J85" si="3">IF(AND(C67=1,SUM(D67:I67)&lt;1),1,"")</f>
-        <v/>
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K101" si="4">IF(AND(E67=1,SUM(C67:I67)&lt;2),1,"")</f>
-        <v/>
-      </c>
-      <c r="L67" t="b">
-        <f t="shared" ref="L67:L101" si="5">(I67+E67+D67)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1">
+        <f t="shared" ref="K67:K85" si="3">IF(AND(D67=1,SUM(E67:J67)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L101" si="4">IF(AND(F67=1,SUM(D67:J67)&lt;2),1,"")</f>
+        <v/>
+      </c>
+      <c r="M67" t="b">
+        <f t="shared" ref="M67:M101" si="5">(J67+F67+E67)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>309</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="J68" t="str">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L68" t="b">
+      <c r="M68" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>907</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="str">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L69" t="b">
+      <c r="M69" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>1604</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="G70">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70">
         <v>1</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
-      <c r="J70" t="str">
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L70" t="b">
+      <c r="M70" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>3819</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="J71">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L71" t="b">
+      <c r="M71" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>3108</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" t="str">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K72" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L72" t="b">
+      <c r="M72" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>3329</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="str">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K73" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L73" t="b">
+      <c r="M73" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" t="str">
+        <v>175</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L74" t="b">
+      <c r="M74" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>4497</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="str">
+        <v>177</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K75" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L75" t="b">
+      <c r="M75" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>1683</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="J76" t="str">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K76">
+      <c r="L76">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L76" t="b">
+      <c r="M76" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>1201</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="J77" t="str">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L77" t="b">
+      <c r="M77" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>3102</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="str">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L78" t="b">
+      <c r="M78" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>1346</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="J79" t="str">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L79" t="b">
+      <c r="M79" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>4382</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="J80" t="str">
+        <v>187</v>
+      </c>
+      <c r="C80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L80" t="b">
+      <c r="M80" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>4535</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="str">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L81" t="b">
+      <c r="M81" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>1326</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="J82" t="str">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L82" t="b">
+      <c r="M82" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>1613</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="str">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K83" t="str">
+      <c r="L83" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L83" t="b">
+      <c r="M83" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="str">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K84">
+      <c r="L84">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L84" t="b">
+      <c r="M84" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>1555</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85" t="str">
+        <v>197</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K85" t="str">
+      <c r="L85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L85" t="b">
+      <c r="M85" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>3932</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="J86" t="str">
-        <f>IF(AND(C86=1,SUM(D86:I86)&lt;1),1,"")</f>
-        <v/>
+      <c r="I86">
+        <v>1</v>
       </c>
       <c r="K86" t="str">
+        <f>IF(AND(D86=1,SUM(E86:J86)&lt;1),1,"")</f>
+        <v/>
+      </c>
+      <c r="L86" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L86" t="b">
+      <c r="M86" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>911</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <f t="shared" ref="J87:J101" si="6">IF(AND(C87=1,SUM(D87:I87)&lt;1),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K87" t="str">
+        <v>201</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87:K101" si="6">IF(AND(D87=1,SUM(E87:J87)&lt;1),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L87" t="b">
+      <c r="M87" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>670</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="str">
+        <v>203</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K88" t="str">
+      <c r="L88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L88" t="b">
+      <c r="M88" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>5250</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="str">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K89" t="str">
+      <c r="L89" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L89" t="b">
+      <c r="M89" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90" t="str">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K90" t="str">
+      <c r="L90" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L90" t="b">
+      <c r="M90" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>4239</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="str">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K91" t="str">
+      <c r="L91" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L91" t="b">
+      <c r="M91" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>4586</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="str">
+        <v>211</v>
+      </c>
+      <c r="C92" t="s">
+        <v>212</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K92" t="str">
+      <c r="L92" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L92" t="b">
+      <c r="M92" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>1409</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="J93" t="str">
+        <v>213</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K93" t="str">
+      <c r="L93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L93" t="b">
+      <c r="M93" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>2570</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="str">
+        <v>215</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K94" t="str">
+      <c r="L94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L94" t="b">
+      <c r="M94" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>5134</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="J95" t="str">
+        <v>217</v>
+      </c>
+      <c r="C95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K95" t="str">
+      <c r="L95" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L95" t="b">
+      <c r="M95" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>1404</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="J96" t="str">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K96" t="str">
+      <c r="L96" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L96" t="b">
+      <c r="M96" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>3739</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="J97" t="str">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K97" t="str">
+      <c r="L97" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L97" t="b">
+      <c r="M97" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>4228</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98" t="str">
+        <v>223</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K98" t="str">
+      <c r="L98" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L98" t="b">
+      <c r="M98" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2730</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99" t="str">
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K99" t="str">
+      <c r="L99" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L99" t="b">
+      <c r="M99" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2321</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="J100" t="str">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K100" t="str">
+      <c r="L100" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L100" t="b">
+      <c r="M100" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>2284</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="J101" t="str">
+        <v>229</v>
+      </c>
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K101">
+      <c r="L101">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L101" t="b">
+      <c r="M101" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L101">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M101"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5131,8 +5787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5143,39 +5799,39 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1">
-        <f>COUNT(Sheet1!C2:C101)</f>
+        <f>COUNT(Sheet1!D2:D101)</f>
         <v>49</v>
       </c>
       <c r="B1">
-        <f>COUNT(Sheet1!D2:D101)</f>
+        <f>COUNT(Sheet1!E2:E101)</f>
         <v>3</v>
       </c>
       <c r="C1">
-        <f>COUNT(Sheet1!E2:E101)</f>
+        <f>COUNT(Sheet1!F2:F101)</f>
         <v>44</v>
       </c>
       <c r="D1">
-        <f>COUNT(Sheet1!F2:F101)</f>
+        <f>COUNT(Sheet1!G2:G101)</f>
         <v>4</v>
       </c>
       <c r="E1">
-        <f>COUNT(Sheet1!G2:G101)</f>
+        <f>COUNT(Sheet1!H2:H101)</f>
         <v>14</v>
       </c>
       <c r="F1">
-        <f>COUNT(Sheet1!H2:H101)</f>
+        <f>COUNT(Sheet1!I2:I101)</f>
         <v>21</v>
       </c>
       <c r="G1">
-        <f>COUNT(Sheet1!I2:I101)</f>
+        <f>COUNT(Sheet1!J2:J101)</f>
         <v>27</v>
       </c>
       <c r="H1">
-        <f>COUNT(Sheet1!J2:J101)</f>
+        <f>COUNT(Sheet1!K2:K101)</f>
         <v>14</v>
       </c>
       <c r="I1">
-        <f>COUNT(Sheet1!K2:K101)</f>
+        <f>COUNT(Sheet1!L2:L101)</f>
         <v>15</v>
       </c>
     </row>
@@ -5211,17 +5867,17 @@
     </row>
     <row r="7" spans="1:13">
       <c r="J7" s="5" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="J8" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="K8" s="3">
         <v>0.15</v>
@@ -5233,7 +5889,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="J9" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3">
@@ -5246,7 +5902,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="J10" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3">
@@ -5259,7 +5915,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="J11" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3">
@@ -5272,7 +5928,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="J12" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3">
@@ -5285,7 +5941,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="J13" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="3">
@@ -5298,25 +5954,25 @@
     </row>
     <row r="14" spans="1:13" ht="90">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5344,27 +6000,27 @@
     </row>
     <row r="18" spans="10:16">
       <c r="K18" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:16">
       <c r="J19" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3">
         <v>0.15</v>
@@ -5387,7 +6043,7 @@
     </row>
     <row r="20" spans="10:16">
       <c r="J20" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="K20" s="3">
         <v>0.15</v>
@@ -5434,15 +6090,15 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <v>0.13</v>
@@ -5450,7 +6106,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>0.15</v>
@@ -5458,7 +6114,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>0.21</v>
@@ -5466,7 +6122,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>0.23</v>
@@ -5474,7 +6130,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>0.27</v>
@@ -5482,7 +6138,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
         <v>0.28000000000000003</v>

--- a/writeup/results/failed clue analysis.xlsx
+++ b/writeup/results/failed clue analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="most common clue issues" sheetId="5" r:id="rId1"/>
@@ -2510,7 +2510,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
